--- a/data/trans_camb/P23_10_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_10_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,36</t>
+          <t>-3,75; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,76</t>
+          <t>-5,18; 1,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,86</t>
+          <t>-5,3; 2,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,94</t>
+          <t>1,87; 9,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,22</t>
+          <t>-0,09; 6,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 6,2</t>
+          <t>-4,25; 0,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,66</t>
+          <t>-4,79; 0,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,22</t>
+          <t>-2,45; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,63</t>
+          <t>0,62; 7,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 4,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 1,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 0,34</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 2,26</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 6,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 4,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>-10,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,44%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>-23,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>-33,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,18%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>51,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-23,46%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>65,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 74,0</t>
+          <t>-38,48; 71,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 34,7</t>
+          <t>-48,29; 29,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 83,35</t>
+          <t>-50,84; 39,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 18,75</t>
+          <t>20,26; 175,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 4,95</t>
+          <t>-0,99; 81,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 117,65</t>
+          <t>-50,17; 16,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 28,85</t>
+          <t>-56,72; 6,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,06; 4,16</t>
+          <t>-31,35; 65,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 77,69</t>
+          <t>5,92; 126,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 56,7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-32,4; 28,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-45,04; 6,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-30,86; 37,15</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23,44; 116,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 57,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 0,22</t>
+          <t>-4,13; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,66</t>
+          <t>-2,32; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 4,43</t>
+          <t>-3,41; 4,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -2,79</t>
+          <t>1,24; 11,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -1,61</t>
+          <t>-0,99; 9,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 4,07</t>
+          <t>-9,9; -2,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -1,93</t>
+          <t>-9,05; -1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,3</t>
+          <t>-6,96; 1,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,42</t>
+          <t>-1,92; 6,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 7,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; -1,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,17</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 1,39</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 8,01</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 7,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,02%</t>
+          <t>-22,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-60,24%</t>
+          <t>127,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,79%</t>
+          <t>67,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>-60,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,69%</t>
+          <t>-50,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,1%</t>
+          <t>-23,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-46,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-26,61%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-18,01%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>70,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>45,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 5,43</t>
+          <t>-56,48; 25,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 53,63</t>
+          <t>-31,36; 88,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 88,29</t>
+          <t>-50,46; 110,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,09; -35,46</t>
+          <t>3,21; 316,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,16; -19,79</t>
+          <t>-12,41; 206,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,53; 52,66</t>
+          <t>-76,16; -33,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,22; -27,99</t>
+          <t>-70,12; -18,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,8; -3,26</t>
+          <t>-53,76; 22,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 34,98</t>
+          <t>-22,31; 111,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-41,11; 141,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-63,68; -23,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-49,03; 3,55</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-44,49; 22,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 149,85</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 133,3</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>1,51</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 12,41</t>
+          <t>-5,1; 14,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,44</t>
+          <t>-5,86; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-6,44; 6,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 7,99</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-1,06; 7,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 7,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 10,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 8,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 5,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 9,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 5,32</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 5,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>149,32%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>121,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>116,23%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103,86%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>137,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>51,8%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>36,65%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45,34%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,77; 399,42</t>
+          <t>-70,37; 548,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 234,44</t>
+          <t>-62,24; 229,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-70,53; 182,69</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-37,96; 1025,8</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 1047,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-47,87; 841,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-57,11; 749,11</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-47,02; 1128,36</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-39,75; 281,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-40,71; 215,1</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-37,5; 276,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-42,21; 198,35</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-45,8; 205,14</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,78</t>
+          <t>-2,65; 2,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,6</t>
+          <t>-2,5; 2,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,09</t>
+          <t>-3,21; 1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -1,0</t>
+          <t>3,31; 9,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,65</t>
+          <t>0,69; 6,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,55</t>
+          <t>-4,6; -0,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,16</t>
+          <t>-4,81; -0,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,19</t>
+          <t>-2,44; 2,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,69</t>
+          <t>0,88; 5,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 4,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 0,11</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; -0,13</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 1,32</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 6,89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 4,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,06%</t>
+          <t>102,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-36,66%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>-36,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>-37,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>49,01%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-20,85%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-20,66%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>73,16%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 31,83</t>
+          <t>-33,38; 40,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 27,25</t>
+          <t>-30,17; 35,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 68,71</t>
+          <t>-40,43; 32,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,83; -15,89</t>
+          <t>39,52; 189,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,32; -8,94</t>
+          <t>6,75; 86,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 72,17</t>
+          <t>-52,29; -12,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -2,5</t>
+          <t>-53,74; -13,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,1; -2,64</t>
+          <t>-28,75; 31,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 59,06</t>
+          <t>8,59; 95,68</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 51,4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-37,04; 3,25</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; -1,95</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 20,05</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>38,33; 113,11</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 54,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
